--- a/Graphe.xlsx
+++ b/Graphe.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F574282-11AF-41B2-A901-65E57FF32051}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E10483A-FDFE-4C51-9EB9-4F257C913464}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Superchargers</t>
   </si>
   <si>
-    <t>Recharge à destination</t>
-  </si>
-  <si>
     <t>U.S.A</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Slovénie</t>
+  </si>
+  <si>
+    <t>Classics chargers</t>
   </si>
 </sst>
 </file>
@@ -431,6 +431,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5BCD-4A3C-A31D-2A2C9BAD9F70}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -451,6 +456,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5BCD-4A3C-A31D-2A2C9BAD9F70}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -471,6 +481,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5BCD-4A3C-A31D-2A2C9BAD9F70}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -491,6 +506,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5BCD-4A3C-A31D-2A2C9BAD9F70}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2800,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,7 +2923,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2912,7 +2932,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2921,7 +2941,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2930,7 +2950,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2939,7 +2959,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2948,7 +2968,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2957,7 +2977,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2966,7 +2986,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2975,7 +2995,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2984,7 +3004,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2993,7 +3013,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3002,7 +3022,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3011,7 +3031,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -3020,7 +3040,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3029,7 +3049,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3038,7 +3058,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3047,7 +3067,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3056,7 +3076,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -3065,7 +3085,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3074,7 +3094,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3083,7 +3103,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3092,7 +3112,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3101,7 +3121,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3119,7 +3139,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3128,7 +3148,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -3137,7 +3157,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -3146,7 +3166,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -3155,7 +3175,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3164,7 +3184,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -3173,7 +3193,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3182,7 +3202,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
@@ -3191,7 +3211,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -3200,7 +3220,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3209,7 +3229,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3218,7 +3238,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3227,7 +3247,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3236,7 +3256,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3245,7 +3265,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3254,7 +3274,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3263,7 +3283,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3272,7 +3292,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3281,7 +3301,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3290,7 +3310,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3299,7 +3319,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3308,7 +3328,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3317,7 +3337,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3326,7 +3346,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3335,7 +3355,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3344,7 +3364,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3353,7 +3373,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3362,7 +3382,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3371,7 +3391,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3380,7 +3400,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
